--- a/downloaded_files/MTHS004_Lecture-35055.xlsx
+++ b/downloaded_files/MTHS004_Lecture-35055.xlsx
@@ -1635,11 +1635,11 @@
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Discrete Mathematics (MTHS004) Location : [20108]20108-60-الجيزة الرئيسي Time : Thursday(9:11)</x:oddHeader>
+    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Discrete Mathematics (MTHS004) Location : [20503]20503-45-الجيزة الرئيسي Time : Thursday(9:11)</x:oddHeader>
     <x:oddFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:oddFooter>
-    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Discrete Mathematics (MTHS004) Location : [20108]20108-60-الجيزة الرئيسي Time : Thursday(9:11)</x:evenHeader>
+    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Discrete Mathematics (MTHS004) Location : [20503]20503-45-الجيزة الرئيسي Time : Thursday(9:11)</x:evenHeader>
     <x:evenFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:evenFooter>
-    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Discrete Mathematics (MTHS004) Location : [20108]20108-60-الجيزة الرئيسي Time : Thursday(9:11)</x:firstHeader>
+    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Discrete Mathematics (MTHS004) Location : [20503]20503-45-الجيزة الرئيسي Time : Thursday(9:11)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
   <x:tableParts count="1">

--- a/downloaded_files/MTHS004_Lecture-35055.xlsx
+++ b/downloaded_files/MTHS004_Lecture-35055.xlsx
@@ -33,15 +33,6 @@
     <x:t>Date</x:t>
   </x:si>
   <x:si>
-    <x:t>4200368</x:t>
-  </x:si>
-  <x:si>
-    <x:t>احمد علي كمال عويس</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ahmed Ali Kamal Ewis</x:t>
-  </x:si>
-  <x:si>
     <x:t>1230160</x:t>
   </x:si>
   <x:si>
@@ -220,6 +211,15 @@
   </x:si>
   <x:si>
     <x:t>Mohamed Alaa Mohamed Elbadry</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250196</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمود يوسف على امين</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mahmoud Youssef Ali Amin</x:t>
   </x:si>
   <x:si>
     <x:t>1240145</x:t>
@@ -699,7 +699,7 @@
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="34.370625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="47.430625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -780,7 +780,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E2" s="3">
-        <x:v>45906.7169549421</x:v>
+        <x:v>45907.6652306713</x:v>
       </x:c>
       <x:c r="F2" s="2" t="s"/>
       <x:c r="G2" s="2" t="s"/>
@@ -812,7 +812,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45907.6652306713</x:v>
+        <x:v>45907.6715134606</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -844,7 +844,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45907.6715134606</x:v>
+        <x:v>45907.6650821759</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -876,7 +876,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45907.6650821759</x:v>
+        <x:v>45907.6647150463</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -908,7 +908,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.6647150463</x:v>
+        <x:v>45907.6657106829</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -940,7 +940,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.6657106829</x:v>
+        <x:v>45907.6725233449</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -972,7 +972,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.6725233449</x:v>
+        <x:v>45907.6659533565</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1004,7 +1004,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.6659533565</x:v>
+        <x:v>45907.6734403588</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1036,7 +1036,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.6734403588</x:v>
+        <x:v>45907.6656014236</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1068,7 +1068,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.6656014236</x:v>
+        <x:v>45907.6651053241</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1100,7 +1100,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.6651053241</x:v>
+        <x:v>45906.6732258102</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1132,7 +1132,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.6732258102</x:v>
+        <x:v>45907.6670137731</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1164,7 +1164,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.6670137731</x:v>
+        <x:v>45907.6645272801</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1196,7 +1196,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.6645272801</x:v>
+        <x:v>45909.4595268171</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1228,7 +1228,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45909.4595268171</x:v>
+        <x:v>45907.6648382292</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1260,7 +1260,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.6648382292</x:v>
+        <x:v>45907.6648376968</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1292,7 +1292,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.6648376968</x:v>
+        <x:v>45907.7103488426</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1324,7 +1324,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.7103488426</x:v>
+        <x:v>45907.673906794</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1356,7 +1356,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.673906794</x:v>
+        <x:v>45907.6650201389</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1388,7 +1388,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6650201389</x:v>
+        <x:v>45907.6712014699</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1420,7 +1420,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6712014699</x:v>
+        <x:v>45927.4665009606</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>

--- a/downloaded_files/MTHS004_Lecture-35055.xlsx
+++ b/downloaded_files/MTHS004_Lecture-35055.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -87,6 +87,15 @@
     <x:t>Jissca Isaac Abdelmalak Banoub</x:t>
   </x:si>
   <x:si>
+    <x:t>4250172</x:t>
+  </x:si>
+  <x:si>
+    <x:t>خالد وليد رمضان فكرى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Khaled Walid Ramadan Fikry</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240307</x:t>
   </x:si>
   <x:si>
@@ -157,6 +166,12 @@
   </x:si>
   <x:si>
     <x:t>Abdelrahman Mohamed Hamdy Eletreby</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4240026</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالرحمن محمد شرقاوى محمد</x:t>
   </x:si>
   <x:si>
     <x:t>1240337</x:t>
@@ -389,7 +404,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E28" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E30" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -689,7 +704,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T28"/>
+  <x:dimension ref="A1:T30"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -972,7 +987,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.6659533565</x:v>
+        <x:v>45927.6783839468</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1004,7 +1019,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.6734403588</x:v>
+        <x:v>45907.6659533565</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1036,7 +1051,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.6656014236</x:v>
+        <x:v>45907.6734403588</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1068,7 +1083,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.6651053241</x:v>
+        <x:v>45907.6656014236</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1100,7 +1115,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.6732258102</x:v>
+        <x:v>45907.6651053241</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1132,7 +1147,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.6670137731</x:v>
+        <x:v>45906.6732258102</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1164,7 +1179,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.6645272801</x:v>
+        <x:v>45907.6670137731</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1196,7 +1211,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45909.4595268171</x:v>
+        <x:v>45907.6645272801</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1228,7 +1243,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.6648382292</x:v>
+        <x:v>45909.4595268171</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1256,11 +1271,9 @@
       <x:c r="C17" s="2" t="s">
         <x:v>51</x:v>
       </x:c>
-      <x:c r="D17" s="2" t="s">
-        <x:v>52</x:v>
-      </x:c>
+      <x:c r="D17" s="2" t="s"/>
       <x:c r="E17" s="3">
-        <x:v>45907.6648376968</x:v>
+        <x:v>45907.6661258449</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1283,16 +1296,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B18" s="2" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="C18" s="2" t="s">
         <x:v>53</x:v>
       </x:c>
-      <x:c r="C18" s="2" t="s">
+      <x:c r="D18" s="2" t="s">
         <x:v>54</x:v>
       </x:c>
-      <x:c r="D18" s="2" t="s">
-        <x:v>55</x:v>
-      </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.7103488426</x:v>
+        <x:v>45907.6648382292</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1315,16 +1328,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B19" s="2" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="C19" s="2" t="s">
         <x:v>56</x:v>
       </x:c>
-      <x:c r="C19" s="2" t="s">
+      <x:c r="D19" s="2" t="s">
         <x:v>57</x:v>
       </x:c>
-      <x:c r="D19" s="2" t="s">
-        <x:v>58</x:v>
-      </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.673906794</x:v>
+        <x:v>45907.6648376968</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1347,16 +1360,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B20" s="2" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="C20" s="2" t="s">
         <x:v>59</x:v>
       </x:c>
-      <x:c r="C20" s="2" t="s">
+      <x:c r="D20" s="2" t="s">
         <x:v>60</x:v>
       </x:c>
-      <x:c r="D20" s="2" t="s">
-        <x:v>61</x:v>
-      </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.6650201389</x:v>
+        <x:v>45907.7103488426</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1379,16 +1392,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B21" s="2" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="C21" s="2" t="s">
         <x:v>62</x:v>
       </x:c>
-      <x:c r="C21" s="2" t="s">
+      <x:c r="D21" s="2" t="s">
         <x:v>63</x:v>
       </x:c>
-      <x:c r="D21" s="2" t="s">
-        <x:v>64</x:v>
-      </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6712014699</x:v>
+        <x:v>45907.673906794</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1411,16 +1424,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B22" s="2" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="C22" s="2" t="s">
         <x:v>65</x:v>
       </x:c>
-      <x:c r="C22" s="2" t="s">
+      <x:c r="D22" s="2" t="s">
         <x:v>66</x:v>
       </x:c>
-      <x:c r="D22" s="2" t="s">
-        <x:v>67</x:v>
-      </x:c>
       <x:c r="E22" s="3">
-        <x:v>45927.4665009606</x:v>
+        <x:v>45907.6650201389</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1443,16 +1456,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B23" s="2" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="C23" s="2" t="s">
         <x:v>68</x:v>
       </x:c>
-      <x:c r="C23" s="2" t="s">
+      <x:c r="D23" s="2" t="s">
         <x:v>69</x:v>
       </x:c>
-      <x:c r="D23" s="2" t="s">
-        <x:v>70</x:v>
-      </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6650592245</x:v>
+        <x:v>45907.6712014699</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1475,16 +1488,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B24" s="2" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="C24" s="2" t="s">
         <x:v>71</x:v>
       </x:c>
-      <x:c r="C24" s="2" t="s">
+      <x:c r="D24" s="2" t="s">
         <x:v>72</x:v>
       </x:c>
-      <x:c r="D24" s="2" t="s">
-        <x:v>73</x:v>
-      </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6649169792</x:v>
+        <x:v>45927.4665009606</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1507,16 +1520,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B25" s="2" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="C25" s="2" t="s">
         <x:v>74</x:v>
       </x:c>
-      <x:c r="C25" s="2" t="s">
+      <x:c r="D25" s="2" t="s">
         <x:v>75</x:v>
       </x:c>
-      <x:c r="D25" s="2" t="s">
-        <x:v>76</x:v>
-      </x:c>
       <x:c r="E25" s="3">
-        <x:v>45909.4204787037</x:v>
+        <x:v>45907.6650592245</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1539,16 +1552,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B26" s="2" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="C26" s="2" t="s">
         <x:v>77</x:v>
       </x:c>
-      <x:c r="C26" s="2" t="s">
+      <x:c r="D26" s="2" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="D26" s="2" t="s">
-        <x:v>79</x:v>
-      </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6668122338</x:v>
+        <x:v>45907.6649169792</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1571,16 +1584,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B27" s="2" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="C27" s="2" t="s">
         <x:v>80</x:v>
       </x:c>
-      <x:c r="C27" s="2" t="s">
+      <x:c r="D27" s="2" t="s">
         <x:v>81</x:v>
       </x:c>
-      <x:c r="D27" s="2" t="s">
-        <x:v>82</x:v>
-      </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6649788194</x:v>
+        <x:v>45909.4204787037</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1603,16 +1616,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B28" s="2" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="C28" s="2" t="s">
         <x:v>83</x:v>
       </x:c>
-      <x:c r="C28" s="2" t="s">
+      <x:c r="D28" s="2" t="s">
         <x:v>84</x:v>
       </x:c>
-      <x:c r="D28" s="2" t="s">
-        <x:v>85</x:v>
-      </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6646291667</x:v>
+        <x:v>45907.6668122338</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1629,6 +1642,70 @@
       <x:c r="R28" s="2" t="s"/>
       <x:c r="S28" s="2" t="s"/>
       <x:c r="T28" s="2" t="s"/>
+    </x:row>
+    <x:row r="29" spans="1:20">
+      <x:c r="A29" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B29" s="2" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="C29" s="2" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="D29" s="2" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="E29" s="3">
+        <x:v>45907.6649788194</x:v>
+      </x:c>
+      <x:c r="F29" s="2" t="s"/>
+      <x:c r="G29" s="2" t="s"/>
+      <x:c r="H29" s="2" t="s"/>
+      <x:c r="I29" s="2" t="s"/>
+      <x:c r="J29" s="2" t="s"/>
+      <x:c r="K29" s="2" t="s"/>
+      <x:c r="L29" s="2" t="s"/>
+      <x:c r="M29" s="2" t="s"/>
+      <x:c r="N29" s="2" t="s"/>
+      <x:c r="O29" s="2" t="s"/>
+      <x:c r="P29" s="2" t="s"/>
+      <x:c r="Q29" s="2" t="s"/>
+      <x:c r="R29" s="2" t="s"/>
+      <x:c r="S29" s="2" t="s"/>
+      <x:c r="T29" s="2" t="s"/>
+    </x:row>
+    <x:row r="30" spans="1:20">
+      <x:c r="A30" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B30" s="2" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="C30" s="2" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="D30" s="2" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="E30" s="3">
+        <x:v>45907.6646291667</x:v>
+      </x:c>
+      <x:c r="F30" s="2" t="s"/>
+      <x:c r="G30" s="2" t="s"/>
+      <x:c r="H30" s="2" t="s"/>
+      <x:c r="I30" s="2" t="s"/>
+      <x:c r="J30" s="2" t="s"/>
+      <x:c r="K30" s="2" t="s"/>
+      <x:c r="L30" s="2" t="s"/>
+      <x:c r="M30" s="2" t="s"/>
+      <x:c r="N30" s="2" t="s"/>
+      <x:c r="O30" s="2" t="s"/>
+      <x:c r="P30" s="2" t="s"/>
+      <x:c r="Q30" s="2" t="s"/>
+      <x:c r="R30" s="2" t="s"/>
+      <x:c r="S30" s="2" t="s"/>
+      <x:c r="T30" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MTHS004_Lecture-35055.xlsx
+++ b/downloaded_files/MTHS004_Lecture-35055.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -166,12 +166,6 @@
   </x:si>
   <x:si>
     <x:t>Abdelrahman Mohamed Hamdy Eletreby</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4240026</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عبدالرحمن محمد شرقاوى محمد</x:t>
   </x:si>
   <x:si>
     <x:t>1240337</x:t>
@@ -404,7 +398,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E30" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E29" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -704,7 +698,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T30"/>
+  <x:dimension ref="A1:T29"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1271,9 +1265,11 @@
       <x:c r="C17" s="2" t="s">
         <x:v>51</x:v>
       </x:c>
-      <x:c r="D17" s="2" t="s"/>
+      <x:c r="D17" s="2" t="s">
+        <x:v>52</x:v>
+      </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.6661258449</x:v>
+        <x:v>45907.6648382292</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1296,16 +1292,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B18" s="2" t="s">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C18" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="D18" s="2" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.6648382292</x:v>
+        <x:v>45907.6648376968</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1328,16 +1324,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B19" s="2" t="s">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C19" s="2" t="s">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="D19" s="2" t="s">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.6648376968</x:v>
+        <x:v>45907.7103488426</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1360,16 +1356,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B20" s="2" t="s">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="C20" s="2" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D20" s="2" t="s">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.7103488426</x:v>
+        <x:v>45907.673906794</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1392,16 +1388,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B21" s="2" t="s">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="C21" s="2" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="D21" s="2" t="s">
-        <x:v>63</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.673906794</x:v>
+        <x:v>45907.6650201389</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1424,16 +1420,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B22" s="2" t="s">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="C22" s="2" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="D22" s="2" t="s">
-        <x:v>66</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6650201389</x:v>
+        <x:v>45907.6712014699</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1456,16 +1452,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B23" s="2" t="s">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C23" s="2" t="s">
-        <x:v>68</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="D23" s="2" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6712014699</x:v>
+        <x:v>45927.4665009606</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1488,16 +1484,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B24" s="2" t="s">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="C24" s="2" t="s">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="D24" s="2" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45927.4665009606</x:v>
+        <x:v>45907.6650592245</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1520,16 +1516,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B25" s="2" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C25" s="2" t="s">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D25" s="2" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6650592245</x:v>
+        <x:v>45907.6649169792</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1552,16 +1548,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B26" s="2" t="s">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C26" s="2" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D26" s="2" t="s">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6649169792</x:v>
+        <x:v>45909.4204787037</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1584,16 +1580,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B27" s="2" t="s">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="C27" s="2" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="D27" s="2" t="s">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45909.4204787037</x:v>
+        <x:v>45907.6668122338</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1616,16 +1612,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B28" s="2" t="s">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="C28" s="2" t="s">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="D28" s="2" t="s">
-        <x:v>84</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6668122338</x:v>
+        <x:v>45907.6649788194</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1648,16 +1644,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B29" s="2" t="s">
-        <x:v>85</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="C29" s="2" t="s">
-        <x:v>86</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="D29" s="2" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.6649788194</x:v>
+        <x:v>45907.6646291667</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1674,38 +1670,6 @@
       <x:c r="R29" s="2" t="s"/>
       <x:c r="S29" s="2" t="s"/>
       <x:c r="T29" s="2" t="s"/>
-    </x:row>
-    <x:row r="30" spans="1:20">
-      <x:c r="A30" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B30" s="2" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="C30" s="2" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="D30" s="2" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="E30" s="3">
-        <x:v>45907.6646291667</x:v>
-      </x:c>
-      <x:c r="F30" s="2" t="s"/>
-      <x:c r="G30" s="2" t="s"/>
-      <x:c r="H30" s="2" t="s"/>
-      <x:c r="I30" s="2" t="s"/>
-      <x:c r="J30" s="2" t="s"/>
-      <x:c r="K30" s="2" t="s"/>
-      <x:c r="L30" s="2" t="s"/>
-      <x:c r="M30" s="2" t="s"/>
-      <x:c r="N30" s="2" t="s"/>
-      <x:c r="O30" s="2" t="s"/>
-      <x:c r="P30" s="2" t="s"/>
-      <x:c r="Q30" s="2" t="s"/>
-      <x:c r="R30" s="2" t="s"/>
-      <x:c r="S30" s="2" t="s"/>
-      <x:c r="T30" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MTHS004_Lecture-35055.xlsx
+++ b/downloaded_files/MTHS004_Lecture-35055.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -103,15 +103,6 @@
   </x:si>
   <x:si>
     <x:t>Rana Tarek Ahmed Shawky</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240308</x:t>
-  </x:si>
-  <x:si>
-    <x:t>روان باسم السيد احمد حسين شامل</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RAWAN BASSEM AL SAYED AHMED HUSSEIN SHAMEL</x:t>
   </x:si>
   <x:si>
     <x:t>1240061</x:t>
@@ -398,7 +389,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E29" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E28" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -698,7 +689,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T29"/>
+  <x:dimension ref="A1:T28"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -707,7 +698,7 @@
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="34.370625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="47.430625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="46.810625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
@@ -1045,7 +1036,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.6734403588</x:v>
+        <x:v>45907.6656014236</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1077,7 +1068,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.6656014236</x:v>
+        <x:v>45907.6651053241</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1109,7 +1100,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.6651053241</x:v>
+        <x:v>45906.6732258102</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1141,7 +1132,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.6732258102</x:v>
+        <x:v>45907.6670137731</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1173,7 +1164,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.6670137731</x:v>
+        <x:v>45907.6645272801</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1205,7 +1196,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.6645272801</x:v>
+        <x:v>45909.4595268171</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1237,7 +1228,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45909.4595268171</x:v>
+        <x:v>45907.6648382292</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1269,7 +1260,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.6648382292</x:v>
+        <x:v>45907.6648376968</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1301,7 +1292,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.6648376968</x:v>
+        <x:v>45907.7103488426</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1333,7 +1324,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.7103488426</x:v>
+        <x:v>45907.673906794</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1365,7 +1356,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.673906794</x:v>
+        <x:v>45907.6650201389</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1397,7 +1388,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6650201389</x:v>
+        <x:v>45907.6712014699</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1429,7 +1420,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6712014699</x:v>
+        <x:v>45927.4665009606</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1461,7 +1452,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45927.4665009606</x:v>
+        <x:v>45907.6650592245</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1493,7 +1484,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6650592245</x:v>
+        <x:v>45907.6649169792</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1525,7 +1516,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6649169792</x:v>
+        <x:v>45909.4204787037</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1557,7 +1548,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45909.4204787037</x:v>
+        <x:v>45907.6668122338</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1589,7 +1580,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6668122338</x:v>
+        <x:v>45907.6649788194</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1621,7 +1612,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6649788194</x:v>
+        <x:v>45907.6646291667</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1638,38 +1629,6 @@
       <x:c r="R28" s="2" t="s"/>
       <x:c r="S28" s="2" t="s"/>
       <x:c r="T28" s="2" t="s"/>
-    </x:row>
-    <x:row r="29" spans="1:20">
-      <x:c r="A29" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B29" s="2" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="C29" s="2" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="D29" s="2" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="E29" s="3">
-        <x:v>45907.6646291667</x:v>
-      </x:c>
-      <x:c r="F29" s="2" t="s"/>
-      <x:c r="G29" s="2" t="s"/>
-      <x:c r="H29" s="2" t="s"/>
-      <x:c r="I29" s="2" t="s"/>
-      <x:c r="J29" s="2" t="s"/>
-      <x:c r="K29" s="2" t="s"/>
-      <x:c r="L29" s="2" t="s"/>
-      <x:c r="M29" s="2" t="s"/>
-      <x:c r="N29" s="2" t="s"/>
-      <x:c r="O29" s="2" t="s"/>
-      <x:c r="P29" s="2" t="s"/>
-      <x:c r="Q29" s="2" t="s"/>
-      <x:c r="R29" s="2" t="s"/>
-      <x:c r="S29" s="2" t="s"/>
-      <x:c r="T29" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
